--- a/src/test/java/Resources/LoginDataTestCases.xlsx
+++ b/src/test/java/Resources/LoginDataTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamednassar/IdeaProjects/E-Commerce Project/src/test/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE8E4F-ED47-4D44-806A-DB95B76B55BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCF2C3-2CDA-DC45-A669-C49347792A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{6D34382F-7288-CA4B-A1A1-0EF94D2278C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>standard_user</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Expected URL</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
   </si>
 </sst>
 </file>
@@ -438,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1806152E-E821-2E43-84E9-4A9587179368}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,52 +463,81 @@
     <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
